--- a/biology/Médecine/Emil_Theodor_Kocher/Emil_Theodor_Kocher.xlsx
+++ b/biology/Médecine/Emil_Theodor_Kocher/Emil_Theodor_Kocher.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Emil Theodor Kocher (25 août 1841 à Berne, Suisse – 27 juillet 1917) est un chirurgien suisse qui a étudié la physiologie de la glande thyroïde et a créé la chirurgie des goitres. Il est lauréat du prix Nobel de physiologie ou médecine de 1909 « pour ses travaux sur la physiologie, la pathologie et la chirurgie de la glande thyroïde[1] ».
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Emil Theodor Kocher (25 août 1841 à Berne, Suisse – 27 juillet 1917) est un chirurgien suisse qui a étudié la physiologie de la glande thyroïde et a créé la chirurgie des goitres. Il est lauréat du prix Nobel de physiologie ou médecine de 1909 « pour ses travaux sur la physiologie, la pathologie et la chirurgie de la glande thyroïde ».
 </t>
         </is>
       </c>
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kocher étudie à Zurich, Berlin, Londres et Vienne. Il obtient son doctorat de l'université de Berne en 1865, et a notamment pour professeur Theodor Billroth[2],[3]. Entre 1865 et 1866, il rencontre le professeur Bernhard von Langenbeck et travaille dans le laboratoire de Rudolf Virchow à Berlin[4].
-En 1872, il succède à Georg Albert Lücke comme professeur ordinaire de chirurgie et directeur de la clinique chirurgicale de l'université de Berne, poste qu'il gardera pendant 45 ans[2],[3].
-Il devient, en 1876, le première chirurgien à exciser la glande thyroïde dans le traitement du goître. En 1912, il rapporte avoir réalisé 5000 excisions de thyroïde[2].
-En 1909, il est lauréat du Prix Nobel de physiologie ou médecine pour son travail sur la glande thyroïde. Trois années plus tard, il donne la somme de 200,000 francs suisses à l'institut de recherche de son université, qui portera, tout comme une rue de Berne, son nom[3],[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kocher étudie à Zurich, Berlin, Londres et Vienne. Il obtient son doctorat de l'université de Berne en 1865, et a notamment pour professeur Theodor Billroth,. Entre 1865 et 1866, il rencontre le professeur Bernhard von Langenbeck et travaille dans le laboratoire de Rudolf Virchow à Berlin.
+En 1872, il succède à Georg Albert Lücke comme professeur ordinaire de chirurgie et directeur de la clinique chirurgicale de l'université de Berne, poste qu'il gardera pendant 45 ans,.
+Il devient, en 1876, le première chirurgien à exciser la glande thyroïde dans le traitement du goître. En 1912, il rapporte avoir réalisé 5000 excisions de thyroïde.
+En 1909, il est lauréat du Prix Nobel de physiologie ou médecine pour son travail sur la glande thyroïde. Trois années plus tard, il donne la somme de 200,000 francs suisses à l'institut de recherche de son université, qui portera, tout comme une rue de Berne, son nom,.
 Il a publié sur beaucoup d'autres sujets que la glande thyroïde, notamment sur l'hémostase, les traitements antiseptiques, les maladies nosocomiales, les blessures par arme à feu, la chirurgie abdominale et sur le crétinisme.
-Il a inventé les pinces à griffe qui portent son nom[2].
+Il a inventé les pinces à griffe qui portent son nom.
 </t>
         </is>
       </c>
@@ -547,10 +561,12 @@
           <t>Sociétés savantes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Premier président de l'International Society of Surgery, fondée en 1903[4],
-Président fondateur de la Société suisse de chirurgie[4].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Premier président de l'International Society of Surgery, fondée en 1903,
+Président fondateur de la Société suisse de chirurgie.</t>
         </is>
       </c>
     </row>
